--- a/biology/Botanique/Saint-Martin_(pomme)/Saint-Martin_(pomme).xlsx
+++ b/biology/Botanique/Saint-Martin_(pomme)/Saint-Martin_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Martin est le nom d'un cultivar de pommier, destiné à la production de cidre.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété est originaire du Pays d'Auge (Calvados et Eure)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété est originaire du Pays d'Auge (Calvados et Eure).
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,12 +584,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est plat, jaune lavé et vergeté de rouge sur moitié, pédoncule très court.
-Il donne un excellent cidre fin en jus monovariétal, peu coloré[1].
+Il donne un excellent cidre fin en jus monovariétal, peu coloré.
 Usage: pomme à cidre
-Variété classée douce-amère. Saint Martin : (2.27 / 30.09) 1055[2].
+Variété classée douce-amère. Saint Martin : (2.27 / 30.09) 1055.
 </t>
         </is>
       </c>
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,9 +648,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Saint-Martin est une bonne variété pollinisatrice pour Judeline, Jeanne Renard et Judella[3].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Saint-Martin est une bonne variété pollinisatrice pour Judeline, Jeanne Renard et Judella.</t>
         </is>
       </c>
     </row>
